--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nrg2-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nrg2-Erbb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Nrg2</t>
+  </si>
+  <si>
+    <t>Erbb3</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Nrg2</t>
-  </si>
-  <si>
-    <t>Erbb3</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,46 +540,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.027178</v>
+        <v>0.05389433333333333</v>
       </c>
       <c r="H2">
-        <v>0.08153400000000001</v>
+        <v>0.161683</v>
       </c>
       <c r="I2">
-        <v>0.060624446521422</v>
+        <v>0.05104862758841702</v>
       </c>
       <c r="J2">
-        <v>0.06161042179872751</v>
+        <v>0.05104862758841703</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1640393333333333</v>
+        <v>0.07487166666666667</v>
       </c>
       <c r="N2">
-        <v>0.492118</v>
+        <v>0.224615</v>
       </c>
       <c r="O2">
-        <v>0.02017083634918183</v>
+        <v>0.01287435003490057</v>
       </c>
       <c r="P2">
-        <v>0.02777954494355415</v>
+        <v>0.01655871537719798</v>
       </c>
       <c r="Q2">
-        <v>0.004458261001333334</v>
+        <v>0.004035158560555556</v>
       </c>
       <c r="R2">
-        <v>0.040124349012</v>
+        <v>0.036316427045</v>
       </c>
       <c r="S2">
-        <v>0.001222845789543329</v>
+        <v>0.0006572179003745629</v>
       </c>
       <c r="T2">
-        <v>0.001711509481349079</v>
+        <v>0.0008452996946331739</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.027178</v>
+        <v>0.05389433333333333</v>
       </c>
       <c r="H3">
-        <v>0.08153400000000001</v>
+        <v>0.161683</v>
       </c>
       <c r="I3">
-        <v>0.060624446521422</v>
+        <v>0.05104862758841702</v>
       </c>
       <c r="J3">
-        <v>0.06161042179872751</v>
+        <v>0.05104862758841703</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.45377</v>
       </c>
       <c r="O3">
-        <v>0.01859903602422231</v>
+        <v>0.02600892111095355</v>
       </c>
       <c r="P3">
-        <v>0.02561484056473563</v>
+        <v>0.03345212152666174</v>
       </c>
       <c r="Q3">
-        <v>0.004110853686666666</v>
+        <v>0.008151877212222223</v>
       </c>
       <c r="R3">
-        <v>0.03699768318</v>
+        <v>0.07336689490999999</v>
       </c>
       <c r="S3">
-        <v>0.001127556264800467</v>
+        <v>0.001327719727769585</v>
       </c>
       <c r="T3">
-        <v>0.001578141131500517</v>
+        <v>0.001707684893857023</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.027178</v>
+        <v>0.05389433333333333</v>
       </c>
       <c r="H4">
-        <v>0.08153400000000001</v>
+        <v>0.161683</v>
       </c>
       <c r="I4">
-        <v>0.060624446521422</v>
+        <v>0.05104862758841702</v>
       </c>
       <c r="J4">
-        <v>0.06161042179872751</v>
+        <v>0.05104862758841703</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.524817</v>
+        <v>0.8000470000000001</v>
       </c>
       <c r="N4">
-        <v>1.574451</v>
+        <v>2.400141</v>
       </c>
       <c r="O4">
-        <v>0.06453328970044923</v>
+        <v>0.1375698656239178</v>
       </c>
       <c r="P4">
-        <v>0.0888761075919267</v>
+        <v>0.1769394371887155</v>
       </c>
       <c r="Q4">
-        <v>0.014263476426</v>
+        <v>0.04311799970033333</v>
       </c>
       <c r="R4">
-        <v>0.128371287834</v>
+        <v>0.388061997303</v>
       </c>
       <c r="S4">
-        <v>0.003912294970296317</v>
+        <v>0.007022752837623951</v>
       </c>
       <c r="T4">
-        <v>0.005475694476567692</v>
+        <v>0.009032515434750843</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.027178</v>
+        <v>0.05389433333333333</v>
       </c>
       <c r="H5">
-        <v>0.08153400000000001</v>
+        <v>0.161683</v>
       </c>
       <c r="I5">
-        <v>0.060624446521422</v>
+        <v>0.05104862758841702</v>
       </c>
       <c r="J5">
-        <v>0.06161042179872751</v>
+        <v>0.05104862758841703</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.68238</v>
+        <v>3.881946</v>
       </c>
       <c r="N5">
-        <v>13.36476</v>
+        <v>7.763892</v>
       </c>
       <c r="O5">
-        <v>0.8216882540552003</v>
+        <v>0.6675092708044715</v>
       </c>
       <c r="P5">
-        <v>0.7544266844127117</v>
+        <v>0.5723574910282232</v>
       </c>
       <c r="Q5">
-        <v>0.18161372364</v>
+        <v>0.209214891706</v>
       </c>
       <c r="R5">
-        <v>1.08968234184</v>
+        <v>1.255289350236</v>
       </c>
       <c r="S5">
-        <v>0.04981439561525011</v>
+        <v>0.03407543217711328</v>
       </c>
       <c r="T5">
-        <v>0.04648054624288265</v>
+        <v>0.02921806440694051</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,46 +788,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.027178</v>
+        <v>0.05389433333333333</v>
       </c>
       <c r="H6">
-        <v>0.08153400000000001</v>
+        <v>0.161683</v>
       </c>
       <c r="I6">
-        <v>0.060624446521422</v>
+        <v>0.05104862758841702</v>
       </c>
       <c r="J6">
-        <v>0.06161042179872751</v>
+        <v>0.05104862758841703</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6100073333333333</v>
+        <v>0.9074473333333333</v>
       </c>
       <c r="N6">
-        <v>1.830022</v>
+        <v>2.722342</v>
       </c>
       <c r="O6">
-        <v>0.07500858387094646</v>
+        <v>0.1560375924257564</v>
       </c>
       <c r="P6">
-        <v>0.1033028224870719</v>
+        <v>0.2006922348792017</v>
       </c>
       <c r="Q6">
-        <v>0.01657877930533334</v>
+        <v>0.04890626906511111</v>
       </c>
       <c r="R6">
-        <v>0.149209013748</v>
+        <v>0.4401564215859999</v>
       </c>
       <c r="S6">
-        <v>0.004547353881531791</v>
+        <v>0.007965504945535641</v>
       </c>
       <c r="T6">
-        <v>0.006364530466427575</v>
+        <v>0.01024506315823549</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.05389433333333333</v>
+        <v>0.3460953333333334</v>
       </c>
       <c r="H7">
-        <v>0.161683</v>
+        <v>1.038286</v>
       </c>
       <c r="I7">
-        <v>0.1202190789967752</v>
+        <v>0.3278209542392655</v>
       </c>
       <c r="J7">
-        <v>0.1221742810077226</v>
+        <v>0.3278209542392655</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1640393333333333</v>
+        <v>0.07487166666666667</v>
       </c>
       <c r="N7">
-        <v>0.492118</v>
+        <v>0.224615</v>
       </c>
       <c r="O7">
-        <v>0.02017083634918183</v>
+        <v>0.01287435003490057</v>
       </c>
       <c r="P7">
-        <v>0.02777954494355415</v>
+        <v>0.01655871537719798</v>
       </c>
       <c r="Q7">
-        <v>0.008840790510444445</v>
+        <v>0.02591273443222223</v>
       </c>
       <c r="R7">
-        <v>0.079567114594</v>
+        <v>0.23321460989</v>
       </c>
       <c r="S7">
-        <v>0.002424919368493315</v>
+        <v>0.004220481713651427</v>
       </c>
       <c r="T7">
-        <v>0.003393945930200446</v>
+        <v>0.00542829387592944</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.05389433333333333</v>
+        <v>0.3460953333333334</v>
       </c>
       <c r="H8">
-        <v>0.161683</v>
+        <v>1.038286</v>
       </c>
       <c r="I8">
-        <v>0.1202190789967752</v>
+        <v>0.3278209542392655</v>
       </c>
       <c r="J8">
-        <v>0.1221742810077226</v>
+        <v>0.3278209542392655</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,22 +936,22 @@
         <v>0.45377</v>
       </c>
       <c r="O8">
-        <v>0.01859903602422231</v>
+        <v>0.02600892111095355</v>
       </c>
       <c r="P8">
-        <v>0.02561484056473563</v>
+        <v>0.03345212152666174</v>
       </c>
       <c r="Q8">
-        <v>0.008151877212222221</v>
+        <v>0.0523492264688889</v>
       </c>
       <c r="R8">
-        <v>0.07336689490999999</v>
+        <v>0.47114303822</v>
       </c>
       <c r="S8">
-        <v>0.002235958981059851</v>
+        <v>0.008526269337326571</v>
       </c>
       <c r="T8">
-        <v>0.003129474729124023</v>
+        <v>0.01096630640019812</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.05389433333333333</v>
+        <v>0.3460953333333334</v>
       </c>
       <c r="H9">
-        <v>0.161683</v>
+        <v>1.038286</v>
       </c>
       <c r="I9">
-        <v>0.1202190789967752</v>
+        <v>0.3278209542392655</v>
       </c>
       <c r="J9">
-        <v>0.1221742810077226</v>
+        <v>0.3278209542392655</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.524817</v>
+        <v>0.8000470000000001</v>
       </c>
       <c r="N9">
-        <v>1.574451</v>
+        <v>2.400141</v>
       </c>
       <c r="O9">
-        <v>0.06453328970044923</v>
+        <v>0.1375698656239178</v>
       </c>
       <c r="P9">
-        <v>0.0888761075919267</v>
+        <v>0.1769394371887155</v>
       </c>
       <c r="Q9">
-        <v>0.028284662337</v>
+        <v>0.2768925331473334</v>
       </c>
       <c r="R9">
-        <v>0.254561961033</v>
+        <v>2.492032798326</v>
       </c>
       <c r="S9">
-        <v>0.007758132652420088</v>
+        <v>0.04509828462340026</v>
       </c>
       <c r="T9">
-        <v>0.01085837454380864</v>
+        <v>0.05800445514176329</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.05389433333333333</v>
+        <v>0.3460953333333334</v>
       </c>
       <c r="H10">
-        <v>0.161683</v>
+        <v>1.038286</v>
       </c>
       <c r="I10">
-        <v>0.1202190789967752</v>
+        <v>0.3278209542392655</v>
       </c>
       <c r="J10">
-        <v>0.1221742810077226</v>
+        <v>0.3278209542392655</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.68238</v>
+        <v>3.881946</v>
       </c>
       <c r="N10">
-        <v>13.36476</v>
+        <v>7.763892</v>
       </c>
       <c r="O10">
-        <v>0.8216882540552003</v>
+        <v>0.6675092708044715</v>
       </c>
       <c r="P10">
-        <v>0.7544266844127117</v>
+        <v>0.5723574910282232</v>
       </c>
       <c r="Q10">
-        <v>0.36014241518</v>
+        <v>1.343523394852</v>
       </c>
       <c r="R10">
-        <v>2.16085449108</v>
+        <v>8.061140369112001</v>
       </c>
       <c r="S10">
-        <v>0.09878260512498444</v>
+        <v>0.2188235261186782</v>
       </c>
       <c r="T10">
-        <v>0.09217153774116311</v>
+        <v>0.187630778874864</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.05389433333333333</v>
+        <v>0.3460953333333334</v>
       </c>
       <c r="H11">
-        <v>0.161683</v>
+        <v>1.038286</v>
       </c>
       <c r="I11">
-        <v>0.1202190789967752</v>
+        <v>0.3278209542392655</v>
       </c>
       <c r="J11">
-        <v>0.1221742810077226</v>
+        <v>0.3278209542392655</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6100073333333333</v>
+        <v>0.9074473333333333</v>
       </c>
       <c r="N11">
-        <v>1.830022</v>
+        <v>2.722342</v>
       </c>
       <c r="O11">
-        <v>0.07500858387094646</v>
+        <v>0.1560375924257564</v>
       </c>
       <c r="P11">
-        <v>0.1033028224870719</v>
+        <v>0.2006922348792017</v>
       </c>
       <c r="Q11">
-        <v>0.03287593855844444</v>
+        <v>0.3140632873124444</v>
       </c>
       <c r="R11">
-        <v>0.295883447026</v>
+        <v>2.826569585812</v>
       </c>
       <c r="S11">
-        <v>0.009017462869817552</v>
+        <v>0.05115239244620907</v>
       </c>
       <c r="T11">
-        <v>0.01262094806342642</v>
+        <v>0.0657911199465107</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,14 +1145,14 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.226565</v>
+        <v>0.6557553333333334</v>
       </c>
       <c r="H12">
-        <v>0.6796949999999999</v>
+        <v>1.967266</v>
       </c>
       <c r="I12">
-        <v>0.5053858902835372</v>
+        <v>0.6211304181723175</v>
       </c>
       <c r="J12">
-        <v>0.5136053136665205</v>
+        <v>0.6211304181723175</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1640393333333333</v>
+        <v>0.07487166666666667</v>
       </c>
       <c r="N12">
-        <v>0.492118</v>
+        <v>0.224615</v>
       </c>
       <c r="O12">
-        <v>0.02017083634918183</v>
+        <v>0.01287435003490057</v>
       </c>
       <c r="P12">
-        <v>0.02777954494355415</v>
+        <v>0.01655871537719798</v>
       </c>
       <c r="Q12">
-        <v>0.03716557155666667</v>
+        <v>0.04909749473222223</v>
       </c>
       <c r="R12">
-        <v>0.33449014401</v>
+        <v>0.44187745259</v>
       </c>
       <c r="S12">
-        <v>0.01019405608609479</v>
+        <v>0.007996650420874581</v>
       </c>
       <c r="T12">
-        <v>0.01426772189424733</v>
+        <v>0.01028512180663536</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,13 +1207,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.226565</v>
+        <v>0.6557553333333334</v>
       </c>
       <c r="H13">
-        <v>0.6796949999999999</v>
+        <v>1.967266</v>
       </c>
       <c r="I13">
-        <v>0.5053858902835372</v>
+        <v>0.6211304181723175</v>
       </c>
       <c r="J13">
-        <v>0.5136053136665205</v>
+        <v>0.6211304181723175</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.45377</v>
       </c>
       <c r="O13">
-        <v>0.01859903602422231</v>
+        <v>0.02600892111095355</v>
       </c>
       <c r="P13">
-        <v>0.02561484056473563</v>
+        <v>0.03345212152666174</v>
       </c>
       <c r="Q13">
-        <v>0.03426946668333333</v>
+        <v>0.0991873658688889</v>
       </c>
       <c r="R13">
-        <v>0.3084252001499999</v>
+        <v>0.89268629282</v>
       </c>
       <c r="S13">
-        <v>0.009399690379517175</v>
+        <v>0.01615493204585739</v>
       </c>
       <c r="T13">
-        <v>0.01315591822276896</v>
+        <v>0.02077813023260659</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.226565</v>
+        <v>0.6557553333333334</v>
       </c>
       <c r="H14">
-        <v>0.6796949999999999</v>
+        <v>1.967266</v>
       </c>
       <c r="I14">
-        <v>0.5053858902835372</v>
+        <v>0.6211304181723175</v>
       </c>
       <c r="J14">
-        <v>0.5136053136665205</v>
+        <v>0.6211304181723175</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.524817</v>
+        <v>0.8000470000000001</v>
       </c>
       <c r="N14">
-        <v>1.574451</v>
+        <v>2.400141</v>
       </c>
       <c r="O14">
-        <v>0.06453328970044923</v>
+        <v>0.1375698656239178</v>
       </c>
       <c r="P14">
-        <v>0.0888761075919267</v>
+        <v>0.1769394371887155</v>
       </c>
       <c r="Q14">
-        <v>0.118905163605</v>
+        <v>0.5246350871673334</v>
       </c>
       <c r="R14">
-        <v>1.070146472445</v>
+        <v>4.721715784506</v>
       </c>
       <c r="S14">
-        <v>0.03261421406818696</v>
+        <v>0.08544882816289356</v>
       </c>
       <c r="T14">
-        <v>0.04564724111721093</v>
+        <v>0.1099024666122013</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,14 +1331,14 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.226565</v>
+        <v>0.6557553333333334</v>
       </c>
       <c r="H15">
-        <v>0.6796949999999999</v>
+        <v>1.967266</v>
       </c>
       <c r="I15">
-        <v>0.5053858902835372</v>
+        <v>0.6211304181723175</v>
       </c>
       <c r="J15">
-        <v>0.5136053136665205</v>
+        <v>0.6211304181723175</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.68238</v>
+        <v>3.881946</v>
       </c>
       <c r="N15">
-        <v>13.36476</v>
+        <v>7.763892</v>
       </c>
       <c r="O15">
-        <v>0.8216882540552003</v>
+        <v>0.6675092708044715</v>
       </c>
       <c r="P15">
-        <v>0.7544266844127117</v>
+        <v>0.5723574910282232</v>
       </c>
       <c r="Q15">
-        <v>1.5139934247</v>
+        <v>2.545606793212</v>
       </c>
       <c r="R15">
-        <v>9.0839605482</v>
+        <v>15.273640759272</v>
       </c>
       <c r="S15">
-        <v>0.4152696498112127</v>
+        <v>0.4146103125086801</v>
       </c>
       <c r="T15">
-        <v>0.3874775538861839</v>
+        <v>0.3555086477464187</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,666 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.226565</v>
+        <v>0.6557553333333334</v>
       </c>
       <c r="H16">
-        <v>0.6796949999999999</v>
+        <v>1.967266</v>
       </c>
       <c r="I16">
-        <v>0.5053858902835372</v>
+        <v>0.6211304181723175</v>
       </c>
       <c r="J16">
-        <v>0.5136053136665205</v>
+        <v>0.6211304181723175</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6100073333333333</v>
+        <v>0.9074473333333333</v>
       </c>
       <c r="N16">
-        <v>1.830022</v>
+        <v>2.722342</v>
       </c>
       <c r="O16">
-        <v>0.07500858387094646</v>
+        <v>0.1560375924257564</v>
       </c>
       <c r="P16">
-        <v>0.1033028224870719</v>
+        <v>0.2006922348792017</v>
       </c>
       <c r="Q16">
-        <v>0.1382063114766666</v>
+        <v>0.5950634285524444</v>
       </c>
       <c r="R16">
-        <v>1.24385680329</v>
+        <v>5.355570856971999</v>
       </c>
       <c r="S16">
-        <v>0.03790827993852564</v>
+        <v>0.09691969503401174</v>
       </c>
       <c r="T16">
-        <v>0.05305687854610946</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.5</v>
-      </c>
-      <c r="G17">
-        <v>0.021523</v>
-      </c>
-      <c r="H17">
-        <v>0.043046</v>
-      </c>
-      <c r="I17">
-        <v>0.04801015389213943</v>
-      </c>
-      <c r="J17">
-        <v>0.0325273164170533</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.1640393333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.492118</v>
-      </c>
-      <c r="O17">
-        <v>0.02017083634918183</v>
-      </c>
-      <c r="P17">
-        <v>0.02777954494355415</v>
-      </c>
-      <c r="Q17">
-        <v>0.003530618571333334</v>
-      </c>
-      <c r="R17">
-        <v>0.021183711428</v>
-      </c>
-      <c r="S17">
-        <v>0.0009684049572573796</v>
-      </c>
-      <c r="T17">
-        <v>0.0009035940483007391</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.5</v>
-      </c>
-      <c r="G18">
-        <v>0.021523</v>
-      </c>
-      <c r="H18">
-        <v>0.043046</v>
-      </c>
-      <c r="I18">
-        <v>0.04801015389213943</v>
-      </c>
-      <c r="J18">
-        <v>0.0325273164170533</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M18">
-        <v>0.1512566666666667</v>
-      </c>
-      <c r="N18">
-        <v>0.45377</v>
-      </c>
-      <c r="O18">
-        <v>0.01859903602422231</v>
-      </c>
-      <c r="P18">
-        <v>0.02561484056473563</v>
-      </c>
-      <c r="Q18">
-        <v>0.003255497236666666</v>
-      </c>
-      <c r="R18">
-        <v>0.01953298342</v>
-      </c>
-      <c r="S18">
-        <v>0.0008929425817683584</v>
-      </c>
-      <c r="T18">
-        <v>0.0008331820240215281</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.5</v>
-      </c>
-      <c r="G19">
-        <v>0.021523</v>
-      </c>
-      <c r="H19">
-        <v>0.043046</v>
-      </c>
-      <c r="I19">
-        <v>0.04801015389213943</v>
-      </c>
-      <c r="J19">
-        <v>0.0325273164170533</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.524817</v>
-      </c>
-      <c r="N19">
-        <v>1.574451</v>
-      </c>
-      <c r="O19">
-        <v>0.06453328970044923</v>
-      </c>
-      <c r="P19">
-        <v>0.0888761075919267</v>
-      </c>
-      <c r="Q19">
-        <v>0.011295636291</v>
-      </c>
-      <c r="R19">
-        <v>0.067773817746</v>
-      </c>
-      <c r="S19">
-        <v>0.003098253169684584</v>
-      </c>
-      <c r="T19">
-        <v>0.002890901273558673</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.5</v>
-      </c>
-      <c r="G20">
-        <v>0.021523</v>
-      </c>
-      <c r="H20">
-        <v>0.043046</v>
-      </c>
-      <c r="I20">
-        <v>0.04801015389213943</v>
-      </c>
-      <c r="J20">
-        <v>0.0325273164170533</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>6.68238</v>
-      </c>
-      <c r="N20">
-        <v>13.36476</v>
-      </c>
-      <c r="O20">
-        <v>0.8216882540552003</v>
-      </c>
-      <c r="P20">
-        <v>0.7544266844127117</v>
-      </c>
-      <c r="Q20">
-        <v>0.14382486474</v>
-      </c>
-      <c r="R20">
-        <v>0.57529945896</v>
-      </c>
-      <c r="S20">
-        <v>0.03944937952855353</v>
-      </c>
-      <c r="T20">
-        <v>0.02453947547736069</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.5</v>
-      </c>
-      <c r="G21">
-        <v>0.021523</v>
-      </c>
-      <c r="H21">
-        <v>0.043046</v>
-      </c>
-      <c r="I21">
-        <v>0.04801015389213943</v>
-      </c>
-      <c r="J21">
-        <v>0.0325273164170533</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.6100073333333333</v>
-      </c>
-      <c r="N21">
-        <v>1.830022</v>
-      </c>
-      <c r="O21">
-        <v>0.07500858387094646</v>
-      </c>
-      <c r="P21">
-        <v>0.1033028224870719</v>
-      </c>
-      <c r="Q21">
-        <v>0.01312918783533333</v>
-      </c>
-      <c r="R21">
-        <v>0.078775127012</v>
-      </c>
-      <c r="S21">
-        <v>0.003601173654875587</v>
-      </c>
-      <c r="T21">
-        <v>0.003360163593811678</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.1191406666666667</v>
-      </c>
-      <c r="H22">
-        <v>0.357422</v>
-      </c>
-      <c r="I22">
-        <v>0.2657604303061262</v>
-      </c>
-      <c r="J22">
-        <v>0.270082667109976</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.1640393333333333</v>
-      </c>
-      <c r="N22">
-        <v>0.492118</v>
-      </c>
-      <c r="O22">
-        <v>0.02017083634918183</v>
-      </c>
-      <c r="P22">
-        <v>0.02777954494355415</v>
-      </c>
-      <c r="Q22">
-        <v>0.01954375553288889</v>
-      </c>
-      <c r="R22">
-        <v>0.175893799796</v>
-      </c>
-      <c r="S22">
-        <v>0.005360610147793014</v>
-      </c>
-      <c r="T22">
-        <v>0.007502773589456553</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.1191406666666667</v>
-      </c>
-      <c r="H23">
-        <v>0.357422</v>
-      </c>
-      <c r="I23">
-        <v>0.2657604303061262</v>
-      </c>
-      <c r="J23">
-        <v>0.270082667109976</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M23">
-        <v>0.1512566666666667</v>
-      </c>
-      <c r="N23">
-        <v>0.45377</v>
-      </c>
-      <c r="O23">
-        <v>0.01859903602422231</v>
-      </c>
-      <c r="P23">
-        <v>0.02561484056473563</v>
-      </c>
-      <c r="Q23">
-        <v>0.01802082010444444</v>
-      </c>
-      <c r="R23">
-        <v>0.16218738094</v>
-      </c>
-      <c r="S23">
-        <v>0.004942887817076465</v>
-      </c>
-      <c r="T23">
-        <v>0.006918124457320601</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.1191406666666667</v>
-      </c>
-      <c r="H24">
-        <v>0.357422</v>
-      </c>
-      <c r="I24">
-        <v>0.2657604303061262</v>
-      </c>
-      <c r="J24">
-        <v>0.270082667109976</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.524817</v>
-      </c>
-      <c r="N24">
-        <v>1.574451</v>
-      </c>
-      <c r="O24">
-        <v>0.06453328970044923</v>
-      </c>
-      <c r="P24">
-        <v>0.0888761075919267</v>
-      </c>
-      <c r="Q24">
-        <v>0.062527047258</v>
-      </c>
-      <c r="R24">
-        <v>0.5627434253220001</v>
-      </c>
-      <c r="S24">
-        <v>0.01715039483986129</v>
-      </c>
-      <c r="T24">
-        <v>0.02400389618078074</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.1191406666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.357422</v>
-      </c>
-      <c r="I25">
-        <v>0.2657604303061262</v>
-      </c>
-      <c r="J25">
-        <v>0.270082667109976</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>6.68238</v>
-      </c>
-      <c r="N25">
-        <v>13.36476</v>
-      </c>
-      <c r="O25">
-        <v>0.8216882540552003</v>
-      </c>
-      <c r="P25">
-        <v>0.7544266844127117</v>
-      </c>
-      <c r="Q25">
-        <v>0.7961432081200001</v>
-      </c>
-      <c r="R25">
-        <v>4.77685924872</v>
-      </c>
-      <c r="S25">
-        <v>0.2183722239751996</v>
-      </c>
-      <c r="T25">
-        <v>0.2037575710651213</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.1191406666666667</v>
-      </c>
-      <c r="H26">
-        <v>0.357422</v>
-      </c>
-      <c r="I26">
-        <v>0.2657604303061262</v>
-      </c>
-      <c r="J26">
-        <v>0.270082667109976</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>0.6100073333333333</v>
-      </c>
-      <c r="N26">
-        <v>1.830022</v>
-      </c>
-      <c r="O26">
-        <v>0.07500858387094646</v>
-      </c>
-      <c r="P26">
-        <v>0.1033028224870719</v>
-      </c>
-      <c r="Q26">
-        <v>0.07267668036488889</v>
-      </c>
-      <c r="R26">
-        <v>0.6540901232840001</v>
-      </c>
-      <c r="S26">
-        <v>0.01993431352619588</v>
-      </c>
-      <c r="T26">
-        <v>0.02790030181729679</v>
+        <v>0.1246560517744555</v>
       </c>
     </row>
   </sheetData>
